--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/citations/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9EE97-499E-614E-B69C-D7B32C06EAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B9249-E2A6-2448-9F22-74A155B1A05C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -53,77 +53,40 @@
     <t>Identifier / Mnemonic *</t>
   </si>
   <si>
-    <t>Title *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Authors *</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>Abstract *</t>
-  </si>
-  <si>
-    <t>SOLAR-IRRADIANCE</t>
-  </si>
-  <si>
-    <t>Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle</t>
-  </si>
-  <si>
-    <t>Assesses the climate impacts of different techniques of solar radiation management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niemeier, U., H. Schmidt, K. Alterskjær, and J. E. Kristjánsson (2013), Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle, J. Geophys. Res., 118, 11905-11917 </t>
-  </si>
-  <si>
-    <t>http://onlinelibrary.wiley.com/doi/10.1002/2013JD020445/abstract</t>
-  </si>
-  <si>
     <t>10.1002/2013JD020445</t>
   </si>
   <si>
-    <t>Different techniques of solar radiation management (SRM) have been suggested to counteract global warming, among them the injection of sulfur into the stratosphere, mirrors in space, and marine cloud brightening through artificial emissions of sea salt. This study focuses on to what extent climate impacts of these three methods would be different. We present results from simulations with an Earth system model where the forcing from the increase of greenhouse gases in a transient scenario (RCP4.5) was balanced over 50 years by SRM. While global mean temperature increases slightly due to the inertia of the climate system and evolves similar with time for the different SRM methods, responses of global mean precipitation differ considerably among the methods. The hydrological sensitivity is decreased by SRM, most prominently for aerosol-based techniques, sea salt emissions, and injection of sulfate into the stratosphere. Reasons for these differences are discussed through an analysis of the surface energy budget. Furthermore, effects on large-scale tropical dynamics and on regional climate are discussed.</t>
+    <t>"@article{
+  title = {Unidata's Common Data Model Mapping to the ISO 19123 Data Model},
+  journal = {Earth Science Informatics},
+  author = {Nativi, Stefano and Caron, John and Domenico, Ben and Bigagli, Lorenzo},
+  year = {2008},
+}"</t>
   </si>
   <si>
-    <t>TIMESLICE-EXPERIMENTS</t>
+    <t>BibTex</t>
   </si>
   <si>
-    <t>Regional climate changes as simulated in time-slice experiments</t>
+    <t>http://journal.com/873487234</t>
   </si>
   <si>
-    <t>Timeslice experiments with CO2 at present levels and at time of CO2 doubling and tripling</t>
+    <t>Nativi_2008</t>
   </si>
   <si>
-    <t>Cubasch, U., J. Waszkewitz, G. Hegerl, and J. Perlwitz (1995), Regional climate changes as simulated in time-slice experiments, Climatic Change, 31, 372-304</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/article/10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t>10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three 30 year long simulations have been performed with a T42 atmosphere model, in which the sea-surface temperature (SST) and sea-ice distribution have been taken from a transient climate change experiment with a T21 global coupled ocean-atmosphere model. In this so-called time-slice experiment, the SST values (and the greenhouse gas concentration) were taken at present time CO2 level, at the time of CO2 doubling and tripling.
-The annual cycle of temperature and precipitation has been studied over the IPCC regions and has been compared with observations. Additionally the combination of temperature and precipitation change has been analysed. Further parameters investigated include the difference between daily minimum and maximum temperature, the rainfall intensity and the length of droughts.
-While the regional simulation of the annual cycle of the near surface temperature is quite realistic with deviations rarely exceeding 3 K, the precipitation is reproduced to a much smaller degree of accuracy.
-The changes in temperature at the time of CO2 doubling amount to only 30–40% of those at the 3 * CO2 level and show hardly any seasonal variation, contrary to the 3 * CO2 experiment. The comparatively small response to the CO2 doubling can be attributed to the cold-start of the simulation, from which the SST has been extracted. The strong change in the seasonality cannot be explained by internal fluctuations and cold start alone, but has to be caused by feedback mechanisms. Due to the delay in warming caused by the transient experiment, from which the SST has been derived, the 3 * CO2 experiment can be compared to the CO2 doubling studies performed with mixed-layer models.
-The precipitation change does not display a clear signal. However, an increase of the rain intensity and of longer dry periods is simulated in many regions of the globe.
-The changes in these parameters as well as the combination of temperature- and precipitation change and the changes in the daily temperature range give valuable hints, in which regions observational studies should be intensified and under which aspects the observational data should be evaluated.
-</t>
+    <t>Long name for internal use (unarchived)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -177,10 +140,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -288,17 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="13"/>
       </left>
@@ -332,7 +293,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -373,34 +334,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,32 +343,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV6"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,12 +1590,19 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1674,21 +1621,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IP56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="10" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="10" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1696,464 +1643,656 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:250" s="27" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="296" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="26"/>
+      <c r="BS3" s="26"/>
+      <c r="BT3" s="26"/>
+      <c r="BU3" s="26"/>
+      <c r="BV3" s="26"/>
+      <c r="BW3" s="26"/>
+      <c r="BX3" s="26"/>
+      <c r="BY3" s="26"/>
+      <c r="BZ3" s="26"/>
+      <c r="CA3" s="26"/>
+      <c r="CB3" s="26"/>
+      <c r="CC3" s="26"/>
+      <c r="CD3" s="26"/>
+      <c r="CE3" s="26"/>
+      <c r="CF3" s="26"/>
+      <c r="CG3" s="26"/>
+      <c r="CH3" s="26"/>
+      <c r="CI3" s="26"/>
+      <c r="CJ3" s="26"/>
+      <c r="CK3" s="26"/>
+      <c r="CL3" s="26"/>
+      <c r="CM3" s="26"/>
+      <c r="CN3" s="26"/>
+      <c r="CO3" s="26"/>
+      <c r="CP3" s="26"/>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="26"/>
+      <c r="CS3" s="26"/>
+      <c r="CT3" s="26"/>
+      <c r="CU3" s="26"/>
+      <c r="CV3" s="26"/>
+      <c r="CW3" s="26"/>
+      <c r="CX3" s="26"/>
+      <c r="CY3" s="26"/>
+      <c r="CZ3" s="26"/>
+      <c r="DA3" s="26"/>
+      <c r="DB3" s="26"/>
+      <c r="DC3" s="26"/>
+      <c r="DD3" s="26"/>
+      <c r="DE3" s="26"/>
+      <c r="DF3" s="26"/>
+      <c r="DG3" s="26"/>
+      <c r="DH3" s="26"/>
+      <c r="DI3" s="26"/>
+      <c r="DJ3" s="26"/>
+      <c r="DK3" s="26"/>
+      <c r="DL3" s="26"/>
+      <c r="DM3" s="26"/>
+      <c r="DN3" s="26"/>
+      <c r="DO3" s="26"/>
+      <c r="DP3" s="26"/>
+      <c r="DQ3" s="26"/>
+      <c r="DR3" s="26"/>
+      <c r="DS3" s="26"/>
+      <c r="DT3" s="26"/>
+      <c r="DU3" s="26"/>
+      <c r="DV3" s="26"/>
+      <c r="DW3" s="26"/>
+      <c r="DX3" s="26"/>
+      <c r="DY3" s="26"/>
+      <c r="DZ3" s="26"/>
+      <c r="EA3" s="26"/>
+      <c r="EB3" s="26"/>
+      <c r="EC3" s="26"/>
+      <c r="ED3" s="26"/>
+      <c r="EE3" s="26"/>
+      <c r="EF3" s="26"/>
+      <c r="EG3" s="26"/>
+      <c r="EH3" s="26"/>
+      <c r="EI3" s="26"/>
+      <c r="EJ3" s="26"/>
+      <c r="EK3" s="26"/>
+      <c r="EL3" s="26"/>
+      <c r="EM3" s="26"/>
+      <c r="EN3" s="26"/>
+      <c r="EO3" s="26"/>
+      <c r="EP3" s="26"/>
+      <c r="EQ3" s="26"/>
+      <c r="ER3" s="26"/>
+      <c r="ES3" s="26"/>
+      <c r="ET3" s="26"/>
+      <c r="EU3" s="26"/>
+      <c r="EV3" s="26"/>
+      <c r="EW3" s="26"/>
+      <c r="EX3" s="26"/>
+      <c r="EY3" s="26"/>
+      <c r="EZ3" s="26"/>
+      <c r="FA3" s="26"/>
+      <c r="FB3" s="26"/>
+      <c r="FC3" s="26"/>
+      <c r="FD3" s="26"/>
+      <c r="FE3" s="26"/>
+      <c r="FF3" s="26"/>
+      <c r="FG3" s="26"/>
+      <c r="FH3" s="26"/>
+      <c r="FI3" s="26"/>
+      <c r="FJ3" s="26"/>
+      <c r="FK3" s="26"/>
+      <c r="FL3" s="26"/>
+      <c r="FM3" s="26"/>
+      <c r="FN3" s="26"/>
+      <c r="FO3" s="26"/>
+      <c r="FP3" s="26"/>
+      <c r="FQ3" s="26"/>
+      <c r="FR3" s="26"/>
+      <c r="FS3" s="26"/>
+      <c r="FT3" s="26"/>
+      <c r="FU3" s="26"/>
+      <c r="FV3" s="26"/>
+      <c r="FW3" s="26"/>
+      <c r="FX3" s="26"/>
+      <c r="FY3" s="26"/>
+      <c r="FZ3" s="26"/>
+      <c r="GA3" s="26"/>
+      <c r="GB3" s="26"/>
+      <c r="GC3" s="26"/>
+      <c r="GD3" s="26"/>
+      <c r="GE3" s="26"/>
+      <c r="GF3" s="26"/>
+      <c r="GG3" s="26"/>
+      <c r="GH3" s="26"/>
+      <c r="GI3" s="26"/>
+      <c r="GJ3" s="26"/>
+      <c r="GK3" s="26"/>
+      <c r="GL3" s="26"/>
+      <c r="GM3" s="26"/>
+      <c r="GN3" s="26"/>
+      <c r="GO3" s="26"/>
+      <c r="GP3" s="26"/>
+      <c r="GQ3" s="26"/>
+      <c r="GR3" s="26"/>
+      <c r="GS3" s="26"/>
+      <c r="GT3" s="26"/>
+      <c r="GU3" s="26"/>
+      <c r="GV3" s="26"/>
+      <c r="GW3" s="26"/>
+      <c r="GX3" s="26"/>
+      <c r="GY3" s="26"/>
+      <c r="GZ3" s="26"/>
+      <c r="HA3" s="26"/>
+      <c r="HB3" s="26"/>
+      <c r="HC3" s="26"/>
+      <c r="HD3" s="26"/>
+      <c r="HE3" s="26"/>
+      <c r="HF3" s="26"/>
+      <c r="HG3" s="26"/>
+      <c r="HH3" s="26"/>
+      <c r="HI3" s="26"/>
+      <c r="HJ3" s="26"/>
+      <c r="HK3" s="26"/>
+      <c r="HL3" s="26"/>
+      <c r="HM3" s="26"/>
+      <c r="HN3" s="26"/>
+      <c r="HO3" s="26"/>
+      <c r="HP3" s="26"/>
+      <c r="HQ3" s="26"/>
+      <c r="HR3" s="26"/>
+      <c r="HS3" s="26"/>
+      <c r="HT3" s="26"/>
+      <c r="HU3" s="26"/>
+      <c r="HV3" s="26"/>
+      <c r="HW3" s="26"/>
+      <c r="HX3" s="26"/>
+      <c r="HY3" s="26"/>
+      <c r="HZ3" s="26"/>
+      <c r="IA3" s="26"/>
+      <c r="IB3" s="26"/>
+      <c r="IC3" s="26"/>
+      <c r="ID3" s="26"/>
+      <c r="IE3" s="26"/>
+      <c r="IF3" s="26"/>
+      <c r="IG3" s="26"/>
+      <c r="IH3" s="26"/>
+      <c r="II3" s="26"/>
+      <c r="IJ3" s="26"/>
+      <c r="IK3" s="26"/>
+      <c r="IL3" s="26"/>
+      <c r="IM3" s="26"/>
+      <c r="IN3" s="26"/>
+      <c r="IO3" s="26"/>
+      <c r="IP3" s="26"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="17"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2167,24 +2306,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="23" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2192,422 +2328,381 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+    </row>
+    <row r="3" spans="1:250" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/citations/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B9249-E2A6-2448-9F22-74A155B1A05C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145D5796-33DA-9749-B2EE-A593F02377E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -81,12 +81,155 @@
   <si>
     <t>Long name for internal use (unarchived)</t>
   </si>
+  <si>
+    <t>10.1029/2018MS001369</t>
+  </si>
+  <si>
+    <t>"@article{
+author = {Cherchi, A. and Fogli, P. G. and Lovato, T. and Peano, D. and Iovino, D. and Gualdi, S. and Masina, S. and Scoccimarro, E. and Materia, S. and Bellucci, A. and Navarra, A.},
+title = {Global Mean Climate and Main Patterns of Variability in the CMCC-CM2 Coupled Model},
+journal = {Journal of Advances in Modeling Earth Systems},
+volume = {11},
+number = {1},
+pages = {185-209},
+doi = {https://doi.org/10.1029/2018MS001369},
+year = {2019}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2018MS001369</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1915364117</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/117/8/3983</t>
+  </si>
+  <si>
+    <t>cherchi_2019</t>
+  </si>
+  <si>
+    <t>scoccimarro_2020</t>
+  </si>
+  <si>
+    <t>"article{
+  title={The typhoon-induced drying of the Maritime Continent},
+  author={Scoccimarro, Enrico and Gualdi, Silvio and Bellucci, Alessio and Peano, Daniele and Cherchi, Annalisa and Vecchi, Gabriel A and Navarra, Antonio},
+  journal={Proceedings of the National Academy of Sciences},
+  volume={117},
+  number={8},
+  pages={3983--3988},
+  year={2020},
+  publisher={National Acad Sciences}
+}"</t>
+  </si>
+  <si>
+    <t>morel_2001</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Bio-optical properties of oceanic waters: A reappraisal},
+  author={Morel, Andr{\'e} and Maritorena, St{\'e}phane},
+  journal={Journal of Geophysical Research: Oceans},
+  volume={106},
+  number={C4},
+  pages={7163--7180},
+  year={2001},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>10.1029/2000JC000319</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2000JC000319</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Explicit and parametrised representation of under ice shelf seas in az* coordinate ocean model NEMO 3.6},
+  author={Mathiot, Pierre and Jenkins, Adrian and Harris, Christopher and Madec, Gurvan},
+  journal={Geoscientific Model Development},
+  volume={10},
+  number={7},
+  pages={2849--2874},
+  year={2017},
+  publisher={Copernicus Publications on behalf of European Geosciences Union}
+}"</t>
+  </si>
+  <si>
+    <t>mathiot_2017</t>
+  </si>
+  <si>
+    <t>10.5194/gmd-10-2849-2017</t>
+  </si>
+  <si>
+    <t>https://gmd.copernicus.org/articles/10/2849/2017/</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Algorithms for the computation of fundamental properties of seawater.},
+  author={Fofonoff, Nicholas Paul and Millard Jr, RC},
+  year={1983},
+  publisher={Unesco}
+}"</t>
+  </si>
+  <si>
+    <t>unesco_1983</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.3248739</t>
+  </si>
+  <si>
+    <t>"@misc{
+  author       = {Madec Gurvan and
+                  Romain Bourdallé-Badie and
+                  Pierre-Antoine Bouttier and
+                  Clément Bricaud and
+                  Diego Bruciaferri and
+                  Daley Calvert and
+                  Jérôme Chanut and
+                  Emanuela Clementi and
+                  Andrew Coward and
+                  Damiano Delrosso and
+                  Christian Ethé and
+                  Simona Flavoni and
+                  Tim Graham and
+                  James Harle and
+                  Doroteaciro Iovino and
+                  Dan Lea and
+                  Claire Lévy and
+                  Tomas Lovato and
+                  Nicolas Martin and
+                  Sébastien Masson and
+                  Silvia Mocavero and
+                  Julien Paul and
+                  Clément Rousset and
+                  Dave Storkey and
+                  Andrea Storto and
+                  Martin Vancoppenolle},
+  title        = {NEMO ocean engine},
+  month        = oct,
+  year         = 2017,
+  note         = {{Fix broken cross-references, still revision 8625 
+                   from SVN repository.}},
+  publisher    = {Zenodo},
+  version      = {v3.6-patch},
+  doi          = {10.5281/zenodo.3248739},
+  url          = {https://doi.org/10.5281/zenodo.3248739}
+}"</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/3248739/export/hx#.X_OM0OlKjVo</t>
+  </si>
+  <si>
+    <t>madec_2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -153,6 +296,18 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -288,12 +443,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -376,8 +534,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1535,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1623,7 +1800,9 @@
   </sheetPr>
   <dimension ref="A1:IP56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2308,7 +2487,9 @@
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2352,46 +2533,90 @@
       <c r="IO2"/>
       <c r="IP2"/>
     </row>
-    <row r="3" spans="1:250" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+    <row r="3" spans="1:250" ht="154" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+    <row r="4" spans="1:250" ht="154" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:250" ht="140" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:250" ht="154" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2703,6 +2928,10 @@
       <c r="E52" s="22"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{AC67B226-01D9-0347-8104-A630E27AFB74}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{836639C3-72D1-A84B-A294-7235D530CA87}"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145D5796-33DA-9749-B2EE-A593F02377E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FACD729-0F65-004D-AE57-13F2ADBB9C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -223,6 +223,31 @@
   </si>
   <si>
     <t>madec_2017</t>
+  </si>
+  <si>
+    <t>bfm_2020</t>
+  </si>
+  <si>
+    <t>"@misc{
+  author       = {Vichi Marcello and
+                  Tomas Lovato and
+                  Momme Butenschön and
+                  Letizia Tedesco and
+                  Paolo Lazzari and
+                  Gianpiero Cossarini and
+                  Simona Masina and
+                  Nadia Pinardi and
+                  Cosimo Solidoro and
+                  Marco Zavatarelli},
+  title        = {he Biogeochemical Flux Model (BFM): Equation Description and User Manual. BFM version 5.2},
+  month        = jun,
+  year         = 2017,
+  version      = {v5.2},
+  url          = {https://cmcc-foundation.github.io/www.bfm-community.eu/files/bfm-V5.2.0-manual_r1.2_202006.pdf}
+}"</t>
+  </si>
+  <si>
+    <t>www.bfm-community.eu</t>
   </si>
 </sst>
 </file>
@@ -2487,8 +2512,8 @@
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2620,10 +2645,16 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FACD729-0F65-004D-AE57-13F2ADBB9C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF73CB-D8B7-404F-95CF-40CC3C045C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Citations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -248,6 +248,197 @@
   </si>
   <si>
     <t>www.bfm-community.eu</t>
+  </si>
+  <si>
+    <t>batjes2006soil</t>
+  </si>
+  <si>
+    <t>@article{
+  title={Soil carbon stocks of Jordan and projected changes upon improved management of croplands},
+  author={Batjes, Niels H},
+  journal={Geoderma},
+  volume={132},
+  number={3-4},
+  pages={361--371},
+  year={2006},
+  publisher={Elsevier}
+}'</t>
+  </si>
+  <si>
+    <t>hugelius2012spatial</t>
+  </si>
+  <si>
+    <t>10.1016/j.geoderma.2005.05.013</t>
+  </si>
+  <si>
+    <t>@article{
+  title={Spatial upscaling using thematic maps: An analysis of uncertainties in permafrost soil carbon estimates},
+  author={Hugelius, Gustaf},
+  journal={Global Biogeochemical Cycles},
+  volume={26},
+  number={2},
+  year={2012},
+  publisher={Wiley Online Library}
+}'</t>
+  </si>
+  <si>
+    <t>10.1029/2011GB004154</t>
+  </si>
+  <si>
+    <t>Neale_2012</t>
+  </si>
+  <si>
+    <t>https://www.cesm.ucar.edu/models/cesm1.0/cam/docs/description/cam5_desc.pdf</t>
+  </si>
+  <si>
+    <t>"@article{
+author = {Neale, R. B.  and Gettelman, A. and Park, S. and others},
+title = {Description of the NCAR Community Atmosphere Model (CAM 5.0)},
+journal = {NCAR Technical Note},
+volume = {},
+number = {},
+pages = {},
+Doi = {},
+year = {2012}
+}"</t>
+  </si>
+  <si>
+    <t>Charlton-Perez_2013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jgrd.50125</t>
+  </si>
+  <si>
+    <t>Craig_2012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/1094342011428141</t>
+  </si>
+  <si>
+    <t>Richter_2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2013MS000303</t>
+  </si>
+  <si>
+    <t>Lin-Rood_1996</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/1520-0493(1996)124%3C2046:MFFSLT%3E2.0.CO;2</t>
+  </si>
+  <si>
+    <t>Lin-Rood_1997</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/qj.49712354416</t>
+  </si>
+  <si>
+    <t>Iacono_2008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2008JD009944</t>
+  </si>
+  <si>
+    <t>Mlawer_1997</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/97JD00237</t>
+  </si>
+  <si>
+    <t>Pincus-Morcrette_2003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2002JD003322</t>
+  </si>
+  <si>
+    <t>Bretherton-Park_2009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/2008JCLI2556.1</t>
+  </si>
+  <si>
+    <t>Zhang-McFarlane_1995</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/07055900.1995.9649539</t>
+  </si>
+  <si>
+    <t>Richter-Rasch_2008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/2007JCLI1789.1</t>
+  </si>
+  <si>
+    <t>Raymond-Blyth_1986</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/1520-0469(1986)043%3C2708:ASMMFN%3E2.0.CO;2</t>
+  </si>
+  <si>
+    <t>Raymond-Blyth_1992</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/1520-0469(1992)049%3C1968:EOTSMM%3E2.0.CO;2</t>
+  </si>
+  <si>
+    <t>Park-Bretherton_2009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/2008JCLI2557.1</t>
+  </si>
+  <si>
+    <t>Morrison-Gettelman_2008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/2008JCLI2105.1</t>
+  </si>
+  <si>
+    <t>Gettelman_2008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/2008JCLI2116.1</t>
+  </si>
+  <si>
+    <t>Gettelman_2010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2009JD013797</t>
+  </si>
+  <si>
+    <t>Park_2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/JCLI-D-14-00087.1</t>
+  </si>
+  <si>
+    <t>McFarlane_1987</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/1520-0469(1987)044%3C1775:TEOOEG%3E2.0.CO;2</t>
+  </si>
+  <si>
+    <t>Lindzen_1981</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/JC086iC10p09707</t>
+  </si>
+  <si>
+    <t>Richter_2010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/2009JAS3112.1</t>
+  </si>
+  <si>
+    <t>Hoskins_1982</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1146/annurev.fl.14.010182.001023</t>
+  </si>
+  <si>
+    <t>Beres_2005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2004JD005504</t>
   </si>
 </sst>
 </file>
@@ -333,6 +524,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -476,7 +668,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -575,6 +767,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2510,10 +2705,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP52"/>
+  <dimension ref="A1:IP50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2658,186 +2853,296 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="A20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="A21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="A35" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
@@ -2943,20 +3248,6 @@
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-    </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF73CB-D8B7-404F-95CF-40CC3C045C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F8393C-806D-0E4E-A84B-827B1139F7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Citations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -439,6 +447,297 @@
   </si>
   <si>
     <t>https://doi.org/10.1029/2004JD005504</t>
+  </si>
+  <si>
+    <t>oleson_2013</t>
+  </si>
+  <si>
+    <t>10.5065/D6RR1W7M</t>
+  </si>
+  <si>
+    <t>"@techreport{
+author = {Oleson, K.~W., D.~Lawrence, G.~Bonan, B.~Drewniak, M.~Huang, C.~Koven,
+  S.~Levis, F.~Li, W.~Riley, Z.~Subin, S.~Swenson, P.~Thornton, A.~Bozbiyik,
+  R.~Fisher, E.~Kluzek, J.-F. Lamarque, P.~Lawrence, L.~Leung, W.~Lipscomb,
+  S.~Muszala, D.~Ricciuto, W.~Sacks, Y.~Sun, J.~Tang, and Z.-L. Yang},
+title = {Technical description of version 4.5 of the community land model ({CLM})},
+institution = {Tech. Rep. Ncar Technical Note NCAR/TN-503+STR}, National Center for
+  Atmospheric Research, Boulder, CO},
+doi = {https://doi.org/10.5065/D6RR1W7M},
+year = {2013}
+}"</t>
+  </si>
+  <si>
+    <t>https://www.cesm.ucar.edu/models/cesm1.2/clm/CLM45_Tech_Note.pdf</t>
+  </si>
+  <si>
+    <t>IGBP_2000</t>
+  </si>
+  <si>
+    <t>"@misc{
+  author       = {Global Soil Data Task},
+  title        = {Global soil data products CD-ROM (IGBP-DIS)},
+  year         = 2000,
+  institute    = {International Geosphere- Biosphere Programme-Data and Information Available Services},
+  url          = {http://www.daac.ornl.gov}
+}"</t>
+  </si>
+  <si>
+    <t>http://www.daac.ornl.gov</t>
+  </si>
+  <si>
+    <t>bonan_2002</t>
+  </si>
+  <si>
+    <t>10.1029/2000GB001360</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Landscapes as patches of plant functional types: An integrating concept for climate and ecosystem models},
+  author={Gordon B. Bonan
+Samuel Levis
+Laurent Kergoat
+Keith W. Oleson},
+  journal={Global Biogeochem. Cycles},
+  volume={16},
+  number={2},
+  year={2002},
+  doi={10.1029/2000GB001360}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2000GB001360</t>
+  </si>
+  <si>
+    <t>batjes_2006</t>
+  </si>
+  <si>
+    <t>"@techreport{
+  author       = {Batjes, N.H.},
+  title        = {ISRIC-WISE derived soil properties on a 5 by 5 arc-minutes global grid.},
+  year         = 2006,
+  institute    = {Report 2006/02},
+  url          = {https://www.isric.org/}
+}"</t>
+  </si>
+  <si>
+    <t>https://www.isric.org/</t>
+  </si>
+  <si>
+    <t>hugelius_2013</t>
+  </si>
+  <si>
+    <t>10.5194/essd-5-3-2013</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={The Northern Circumpolar Soil Carbon Database: spatially distributed datasets of soil coverage and soil carbon storage in the northern permafrost regions.},
+  author={Hugelius, G., C. Tarnocai, G. Broll, J.G. Canadell, P. Kuhry, adn D.K. Swanson},
+  journal={Earth Syst. Sci. Data},
+  volume={5},
+  pages={3--13},
+  year={2013},
+  doi={10.5194/essd-5-3-2013}
+}"</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/5/3/2013/essd-5-3-2013.pdf</t>
+  </si>
+  <si>
+    <t>lawrence_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1029/2006JG000168 </t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Representing a MODIS consistent land surface in the Community Land Model (CLM 3.0).},
+  author={Lawrence, P.J., and Chase, T.N.},
+  journal={J. Geophys. Res.},
+  volume={112},
+  year={2007},
+  doi={10.1029/2006JG000168}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2006JG000168</t>
+  </si>
+  <si>
+    <t>niu_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1029/2006JD007522 </t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Development of a simple groundwater model for use in climate models and evaluation with Gravity Recovery and Climate Experiment data.},
+  author={Niu, G.-Y., Yang, Z.-L., Dickinson, R.E., Gulden, L.E., and Su, H.},
+  journal={J. Geophys. Res.},
+  volume={112},
+  year={2007},
+  doi={10.1029/2006JD007522}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/2006JD007522</t>
+  </si>
+  <si>
+    <t>niu_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1029/2005JD006111 </t>
+  </si>
+  <si>
+    <t>"@article{
+  title={A simple TOPMODEL-based runoff parameterization (SIMTOP) for use in global climate models.},
+  author={Niu, G.-Y., Yang, Z.-L., Dickinson, R.E., and Gulden, L.E.},
+  journal={J. Geophys. Res.},
+  volume={110},
+  year={2005},
+  doi={10.1029/2005JD006111}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/2005JD006111</t>
+  </si>
+  <si>
+    <t>collatz_1991</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Physiological and environmental regulation of stomatal conductance, photosynthesis, and transpiration: A model that includes a laminar boundary layer.},
+  author={Collatz, G.J., Ball, J.T., Grivet, C., and Berry, J.A.},
+  journal={Agric. For. Meteor.},
+  volume={54},
+  year={1991},
+  pages={107--136}
+}"</t>
+  </si>
+  <si>
+    <t>sellers_1996</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={A revised land surface parameterization (SiB2) for atmospheric GCMs. Part I: Model formulation.},
+  author={Sellers, P.J., Randall, D.A., Collatz, G.J., Berry, J.A., Field, C.B., Dazlich, D.A., Zhang, C., Collelo, G.D., and Bounoua, L.},
+  journal={J. Climate},
+  volume={9},
+  year={1996},
+  pages={676--705}
+}"</t>
+  </si>
+  <si>
+    <t>bonan_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1029/2010JG001593 </t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Improving canopy processes in the Community Land Model (CLM4) using global flux fields empirically inferred from FLUXNET data.},
+  author={Bonan, G.B., Lawrence P.J., Oleson K.W., Levis S., Jung M., Reichstein M., Lawrence, D.M., and Swenson, S.C.},
+  journal={J. Geophys. Res.},
+  volume={116},
+  year={2011},
+  doi={10.1029/2010JG001593}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/epdf/10.1029/2010JG001593</t>
+  </si>
+  <si>
+    <t>ryan_1991</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={A simple method for estimating gross carbon budgets for vegetation in forest ecosystems.},
+  author={Ryan, M. G.},
+  journal={Tree Phys.},
+  volume={9},
+  year={1991},
+  pages={255--266}
+}"</t>
+  </si>
+  <si>
+    <t>larcher_1995</t>
+  </si>
+  <si>
+    <t>"@book{
+  author       = {Larcher, W.},
+  title        = {Physiological Plant Ecology},
+  year         = {1995},
+  publisher   = {Springer-Verlag},
+  address          = {Berlin Heidelberg}
+}"</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/gp/book/9783540435167</t>
+  </si>
+  <si>
+    <t>graham_1999</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Five-minute, 1/2o, and 1o data sets of continental watersheds and river networks for use in regional and global hydrologic and climate system modeling studies.},
+  author={Graham, S.T., Famiglietti, J.S., and Maidment, D.R.},
+  journal={Water Resour. Res.},
+  volume={35},
+  year={1999},
+  pages={583--587}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/epdf/10.1029/1998WR900068</t>
+  </si>
+  <si>
+    <t>subin_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1029/2011MS000072 </t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Improved lake model for climate simulations},
+  author={Subin, Z.M., Riley, W.J. and Mironov, D.},
+  journal={J. Adv. Model. Earth Syst.},
+  volume={4},
+  year={2012},
+  doi={10.1029/2011MS000072}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/2011MS000072</t>
+  </si>
+  <si>
+    <t>pivovarov_1972</t>
+  </si>
+  <si>
+    <t>"@book{
+  author       = {Pivovarov, A.A.},
+  title        = {Thermal Conditions in Freezing Lakes and Reservoirs.},
+  year         = {1972},
+  publisher   = {John Wiley},
+  address          = {New York}
+}"</t>
+  </si>
+  <si>
+    <t>lehner_2004</t>
+  </si>
+  <si>
+    <t>10.1016/j.jhydrol.2004.03.028</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Development and validation of a global database of lakes, reservoirs and wetlands},
+  author={Lehner, B. and Döll, P.},
+  journal={J. Hydrol.},
+  volume={296},
+  year={2004},
+  doi={10.1016/j.jhydrol.2004.03.028}
+}"</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0022169404001404</t>
   </si>
 </sst>
 </file>
@@ -2705,10 +3004,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP50"/>
+  <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3144,110 +3443,232 @@
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+    <row r="36" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
+      <c r="A37" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
+      <c r="A39" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
+      <c r="A44" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
+      <c r="C44" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
+      <c r="A45" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
+      <c r="C45" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17"/>
+      <c r="A47" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
+      <c r="C47" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
+      <c r="A48" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
+      <c r="A49" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F8393C-806D-0E4E-A84B-827B1139F7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C1BE2-1577-6D44-BEF1-3C2EFCEA3CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="163">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -738,6 +738,42 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S0022169404001404</t>
+  </si>
+  <si>
+    <t>Liu_2012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/gmd-5-709-2012</t>
+  </si>
+  <si>
+    <t>Lamarque_2010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/acp-10-7017-2010</t>
+  </si>
+  <si>
+    <t>Bond_2007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2006GB002840</t>
+  </si>
+  <si>
+    <t>Junker-Liousse_2008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/acp-8-1195-2008</t>
+  </si>
+  <si>
+    <t>Smith_2001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0921-8181(00)00057-6</t>
+  </si>
+  <si>
+    <t>Smith_2004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2172/15020102</t>
   </si>
 </sst>
 </file>
@@ -3004,10 +3040,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP52"/>
+  <dimension ref="A1:IP59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3443,230 +3479,307 @@
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>98</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>101</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>105</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>108</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>112</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="22"/>
+      <c r="A41" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="154" x14ac:dyDescent="0.15">
       <c r="A43" s="17" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="C45" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B46" s="22"/>
       <c r="C46" s="22" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="C47" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="C48" s="22" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="C49" s="22" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B57" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18" t="s">
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="18" t="s">
+    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B59" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D59" s="18" t="s">
         <v>150</v>
       </c>
     </row>

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C1BE2-1577-6D44-BEF1-3C2EFCEA3CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A192B4-30B1-B843-B13F-C60336DC8BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Citations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -774,6 +774,52 @@
   </si>
   <si>
     <t>https://doi.org/10.2172/15020102</t>
+  </si>
+  <si>
+    <t>hunke_2010</t>
+  </si>
+  <si>
+    <t>@article{
+  title={CICE: the Los Alamos Sea Ice Model Documentation and Software User’s Manual Version 4.1 LA-CC-06-012},
+  author={Hunke, Elizabeth C and Lipscomb, William H and Turner, Adrian K and Jeffery, Nicole and Elliott, Scott},
+  journal={T-3 Fluid Dynamics Group, Los Alamos National Laboratory},
+  volume={675},
+  pages={500},
+  year={2010}
+}'</t>
+  </si>
+  <si>
+    <t>https://csdms.colorado.edu/w/images/CICE_documentation_and_software_user's_manual.pdf</t>
+  </si>
+  <si>
+    <t>10.5065/D6B27S71</t>
+  </si>
+  <si>
+    <t>briegleb_2007</t>
+  </si>
+  <si>
+    <t>hunke_1997</t>
+  </si>
+  <si>
+    <t>10.1175/1520-0485(1997)027&lt;1849:AEVPMF&gt;2.0.CO;2</t>
+  </si>
+  <si>
+    <t>lipscomb_2004</t>
+  </si>
+  <si>
+    <t>10.1175/1520-0493(2004)132&lt;1341:MSITUI&gt;2.0.CO;2</t>
+  </si>
+  <si>
+    <t>Assur_1958</t>
+  </si>
+  <si>
+    <t>@book{
+  title={Composition of sea ice and its tensile strength},
+  author={Assur, Andrew},
+  volume={44},
+  year={1960},
+  publisher={US Army Snow, Ice and Permafrost Research Establishment}
+}'</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1049,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1106,6 +1152,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3040,10 +3089,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP59"/>
+  <dimension ref="A1:IP64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3189,89 +3238,90 @@
     </row>
     <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
-        <v>48</v>
+      <c r="C10" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+        <v>172</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -3279,10 +3329,10 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -3290,76 +3340,76 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3367,10 +3417,10 @@
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -3378,10 +3428,10 @@
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -3389,102 +3439,98 @@
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+        <v>81</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -3492,10 +3538,10 @@
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -3503,283 +3549,342 @@
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="A41" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>98</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>101</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>105</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="22"/>
+      <c r="A46" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" ht="154" x14ac:dyDescent="0.15">
       <c r="A48" s="17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>118</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B49" s="22"/>
       <c r="C49" s="22" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="C52" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="C54" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="C55" s="22" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D56" s="22"/>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B62" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C62" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D62" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="22"/>
-    </row>
-    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="18" t="s">
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="18" t="s">
+    <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C64" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D64" s="18" t="s">
         <v>150</v>
       </c>
     </row>

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A192B4-30B1-B843-B13F-C60336DC8BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E431DF0-2C17-0C48-B23E-E133144750DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,9 +810,6 @@
     <t>10.1175/1520-0493(2004)132&lt;1341:MSITUI&gt;2.0.CO;2</t>
   </si>
   <si>
-    <t>Assur_1958</t>
-  </si>
-  <si>
     <t>@book{
   title={Composition of sea ice and its tensile strength},
   author={Assur, Andrew},
@@ -820,6 +817,9 @@
   year={1960},
   publisher={US Army Snow, Ice and Permafrost Research Establishment}
 }'</t>
+  </si>
+  <si>
+    <t>assur_1958</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3092,7 @@
   <dimension ref="A1:IP64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3284,11 +3284,11 @@
     </row>
     <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>

--- a/cmip6/citations/cmip6_cmcc_citations.xlsx
+++ b/cmip6/citations/cmip6_cmcc_citations.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/ES-DOC-INST-cmcc/cmip6/citations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovato/GIT/es-doc.cmcc/cmip6/citations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E431DF0-2C17-0C48-B23E-E133144750DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438C6771-C9CA-9348-BE4F-5DAD4B3B1D05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38280" windowHeight="21920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Citations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="178">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -821,12 +813,33 @@
   <si>
     <t>assur_1958</t>
   </si>
+  <si>
+    <t>scoccimarro_2021</t>
+  </si>
+  <si>
+    <t>10.5194/gmd-2021-294</t>
+  </si>
+  <si>
+    <t>https://gmd.copernicus.org/preprints/gmd-2021-294/</t>
+  </si>
+  <si>
+    <t>"Article{gmd-2021-294,
+AUTHOR = {Scoccimarro, E. and Peano, D. and Gualdi, S. and Bellucci, A. and Lovato, T. and Fogli, P. G. and Navarra, A.},
+TITLE = {Extreme Events Representation in CMCC-CM2 High and Very-High Resolution General Circulation Models},
+JOURNAL = {Geoscientific Model Development Discussions},
+VOLUME = {2021},
+YEAR = {2021},
+PAGES = {1--18},
+URL = {https://gmd.copernicus.org/preprints/gmd-2021-294/},
+DOI = {10.5194/gmd-2021-294}
+}"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -904,6 +917,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF464646"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1049,7 +1068,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1154,6 +1173,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3089,10 +3111,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP64"/>
+  <dimension ref="A1:IP65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3167,105 +3189,109 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:250" ht="140" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:250" ht="168" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:250" ht="140" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:250" ht="154" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:250" ht="154" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>165</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="23"/>
@@ -3273,10 +3299,10 @@
     </row>
     <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>171</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="23"/>
@@ -3284,55 +3310,55 @@
     </row>
     <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="34" t="s">
-        <v>172</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="34"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="C15" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -3340,10 +3366,10 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -3351,10 +3377,10 @@
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -3362,10 +3388,10 @@
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3373,10 +3399,10 @@
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -3384,10 +3410,10 @@
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -3395,32 +3421,32 @@
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -3428,10 +3454,10 @@
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -3439,10 +3465,10 @@
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -3450,10 +3476,10 @@
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -3461,10 +3487,10 @@
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -3472,10 +3498,10 @@
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -3483,10 +3509,10 @@
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -3494,21 +3520,21 @@
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+        <v>81</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -3516,10 +3542,10 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -3527,10 +3553,10 @@
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -3538,10 +3564,10 @@
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -3549,58 +3575,58 @@
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="A39" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="A41" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -3608,10 +3634,10 @@
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -3619,10 +3645,10 @@
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -3630,268 +3656,279 @@
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
     </row>
-    <row r="48" spans="1:5" ht="154" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B49" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D49" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>103</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B50" s="22"/>
       <c r="C50" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>110</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B52" s="22"/>
       <c r="C52" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="C56" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B58" s="22"/>
       <c r="C58" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D58" s="22"/>
       <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="22"/>
+        <v>129</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="C59" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>137</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D60" s="22"/>
       <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B63" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D63" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B65" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C65" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D65" s="18" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{AC67B226-01D9-0347-8104-A630E27AFB74}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{836639C3-72D1-A84B-A294-7235D530CA87}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{AC67B226-01D9-0347-8104-A630E27AFB74}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{836639C3-72D1-A84B-A294-7235D530CA87}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
